--- a/New_Dataset.xlsx
+++ b/New_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/028a108878611417/final_projec_tuwaiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D98F33D-3D3A-4DEE-827B-CCEFBA7857DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{028E8392-2357-473E-A97A-9D26551BD53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D20FF82-BB17-4150-8565-CBBCA09820BD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{2F54F574-CCB1-4B93-9F38-58F734B9B98F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Object</t>
   </si>
@@ -225,6 +225,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>coffee-tea pot</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>ابريق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعة </t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>بالون</t>
   </si>
 </sst>
 </file>
@@ -260,8 +278,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,6 +296,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D49E014-4DB6-484B-B782-2B1605B126B7}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -860,6 +883,30 @@
         <v>61</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New_Dataset.xlsx
+++ b/New_Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/028a108878611417/final_projec_tuwaiq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80104061\Documents\GitHub\capstone-project-letterhunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{028E8392-2357-473E-A97A-9D26551BD53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D20FF82-BB17-4150-8565-CBBCA09820BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D441995-F205-4390-BB11-864AC57CCB0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{2F54F574-CCB1-4B93-9F38-58F734B9B98F}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -185,9 +174,6 @@
     <t>فارة , ماوس</t>
   </si>
   <si>
-    <t xml:space="preserve">دفتر </t>
-  </si>
-  <si>
     <t>قلم</t>
   </si>
   <si>
@@ -243,17 +229,20 @@
   </si>
   <si>
     <t>بالون</t>
+  </si>
+  <si>
+    <t>دفتر, كتاب, نوت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -621,18 +610,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D49E014-4DB6-484B-B782-2B1605B126B7}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.4140625" customWidth="1"/>
     <col min="3" max="3" width="12.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -648,7 +637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -656,7 +645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -664,7 +653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -672,7 +661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -680,7 +669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -688,7 +677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -696,7 +685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -704,7 +693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -712,7 +701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -720,7 +709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -728,7 +717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -736,7 +725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -744,7 +733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -752,7 +741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -760,7 +749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -768,7 +757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -776,138 +765,139 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>